--- a/public/TagThieuKet.xlsx
+++ b/public/TagThieuKet.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HPDQ-SAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2080E0D8-7A4E-495E-89CF-12AFF0FEE898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3BF108-DF94-4CCA-83BF-FA5E16AE8CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFBE29CB-D38E-42E2-A34C-B8631848C5A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{BFBE29CB-D38E-42E2-A34C-B8631848C5A2}"/>
   </bookViews>
   <sheets>
     <sheet name="TK1" sheetId="6" r:id="rId1"/>
     <sheet name="TK2" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="213">
   <si>
     <t>Tag0</t>
   </si>
@@ -650,6 +659,21 @@
   </si>
   <si>
     <t>LI601eBM</t>
+  </si>
+  <si>
+    <t>LI601aAM</t>
+  </si>
+  <si>
+    <t>LI601bAM</t>
+  </si>
+  <si>
+    <t>LI601cAM</t>
+  </si>
+  <si>
+    <t>LI601dAM</t>
+  </si>
+  <si>
+    <t>LI601eAM</t>
   </si>
 </sst>
 </file>
@@ -773,18 +797,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1119,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C63D7B-F4B2-4025-BAC9-C28876C6EDB7}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,26 +1150,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1164,12 +1183,12 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1178,24 +1197,24 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1204,288 +1223,288 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1494,303 +1513,351 @@
       <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="3" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D54" s="4"/>
+      <c r="A54" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D55" s="4"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D57" s="4"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="4"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A54:A58"/>
     <mergeCell ref="A30:A53"/>
     <mergeCell ref="A6:A29"/>
     <mergeCell ref="A1:B1"/>
@@ -1807,8 +1874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7D2511-DCAF-44B1-9A55-9E3C72837790}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:B58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,10 +1886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1831,10 +1898,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1910,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1857,7 +1924,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1871,7 +1938,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>142</v>
       </c>
@@ -1883,7 +1950,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1897,7 +1964,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1909,7 +1976,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1921,7 +1988,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1933,7 +2000,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>42</v>
       </c>
@@ -1945,7 +2012,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1957,7 +2024,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,7 +2036,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1981,7 +2048,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>46</v>
       </c>
@@ -1993,7 +2060,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2005,7 +2072,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2017,7 +2084,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="6"/>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
@@ -2029,7 +2096,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2041,7 +2108,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2053,7 +2120,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="6"/>
       <c r="B20" s="1" t="s">
         <v>52</v>
       </c>
@@ -2065,7 +2132,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
@@ -2077,7 +2144,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2089,7 +2156,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2101,7 +2168,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="6"/>
       <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2180,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2125,7 +2192,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
@@ -2137,7 +2204,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="1" t="s">
         <v>59</v>
       </c>
@@ -2149,7 +2216,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="1" t="s">
         <v>139</v>
       </c>
@@ -2161,7 +2228,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
         <v>140</v>
       </c>
@@ -2173,7 +2240,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2187,7 +2254,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
@@ -2199,7 +2266,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
         <v>40</v>
       </c>
@@ -2211,7 +2278,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
@@ -2223,7 +2290,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,7 +2302,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
@@ -2247,7 +2314,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +2326,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
@@ -2271,7 +2338,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,7 +2350,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>47</v>
       </c>
@@ -2295,7 +2362,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
@@ -2307,7 +2374,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2319,7 +2386,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="4"/>
       <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2331,7 +2398,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="4"/>
       <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
@@ -2343,7 +2410,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="4"/>
       <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
@@ -2355,7 +2422,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="4"/>
       <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,7 +2434,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2379,7 +2446,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="4"/>
       <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
@@ -2391,7 +2458,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="4"/>
       <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2403,7 +2470,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="4"/>
       <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
@@ -2415,7 +2482,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="4"/>
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
@@ -2427,7 +2494,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
@@ -2439,7 +2506,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="4"/>
       <c r="B52" s="1" t="s">
         <v>139</v>
       </c>
@@ -2451,7 +2518,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="4"/>
       <c r="B53" s="1" t="s">
         <v>140</v>
       </c>
@@ -2463,10 +2530,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2477,8 +2544,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="6" t="s">
+      <c r="A55" s="6"/>
+      <c r="B55" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2489,8 +2556,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="6" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2501,8 +2568,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2513,8 +2580,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="7"/>
+      <c r="B58" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C58" s="1" t="s">
